--- a/Documentation/BOM/BOM.xlsx
+++ b/Documentation/BOM/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilian\Github\GimbalBoard_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0205CE-646C-49EE-9CAD-A46756A5798F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7013FF8A-E60F-42B1-9585-989D095DEA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="1164" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1332" yWindow="1776" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Id</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>10uF Capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red LED </t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>0.42099999999999999</v>
@@ -598,21 +601,29 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>0.48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Documentation/BOM/BOM.xlsx
+++ b/Documentation/BOM/BOM.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilian\Github\GimbalBoard_Hardware\Documentation\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\OneDrive\Documents\GitHub\GimbalBoard_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A2FF89-B0C2-420C-B717-667032CE3D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB37BFD0-969C-46FB-BD9A-41848558392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="1776" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -115,6 +114,24 @@
   </si>
   <si>
     <t xml:space="preserve">Red LED </t>
+  </si>
+  <si>
+    <t>dual NMOS</t>
+  </si>
+  <si>
+    <t>digikey</t>
+  </si>
+  <si>
+    <t>2N7002NCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/on-semiconductor/2n7002/mosfet-n-channel-60v-115ma-sot/dp/58K9651?gclid=CjwKCAiAm7OMBhAQEiwArvGi3JAKS1RbplkHNRLcR4XTUiYGfFYLS7X2EdIIIidl7Vz5AOVoCz_QBRoCotQQAvD_BwE&amp;mckv=s_dc|pcrid|502765332365|plid||kword|2n7002|match|p|slid||product||pgrid|118037913589|ptaid|kwd-713885255|&amp;cmp=KNC-GUSA-GEN-SKU-Semiconductors-Semiconductors-https://www.newark.com/on-semiconductor/2n7002/mosfet-n-channel-60v-115ma-sot/dp/58K9651?gclid=CjwKCAiAm7OMBhAQEiwArvGi3JAKS1RbplkHNRLcR4XTUiYGfFYLS7X2EdIIIidl7Vz5AOVoCz_QBRoCotQQAvD_BwE&amp;mckv=s_dc|pcrid|502765332365|plid||kword|2n7002|match|p|slid||product||pgrid|118037913589|ptaid|kwd-713885255|&amp;cmp=KNC-GUSA-GEN-SKU-Semiconductors-Semiconductors-Discretes</t>
+  </si>
+  <si>
+    <t>pb-smd</t>
+  </si>
+  <si>
+    <t>toggle switch</t>
   </si>
 </sst>
 </file>
@@ -491,20 +508,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="10" width="12.6640625" customWidth="1"/>
+    <col min="1" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" customWidth="1"/>
+    <col min="7" max="10" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -559,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>14</v>
       </c>
@@ -579,7 +596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>18</v>
       </c>
@@ -599,7 +616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>27</v>
       </c>
@@ -607,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -625,6 +642,45 @@
       </c>
       <c r="J6" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>0.34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/BOM/BOM.xlsx
+++ b/Documentation/BOM/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\OneDrive\Documents\GitHub\GimbalBoard_Hardware\Documentation\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilian\Github\GimbalBoard_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB37BFD0-969C-46FB-BD9A-41848558392B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51F36D-48FB-46E9-B9FB-632442E7FA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4608" yWindow="1560" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -132,6 +132,87 @@
   </si>
   <si>
     <t>toggle switch</t>
+  </si>
+  <si>
+    <t>AndersonPP</t>
+  </si>
+  <si>
+    <t>Zener Diode</t>
+  </si>
+  <si>
+    <t>330 Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Resistor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 Resistor </t>
+  </si>
+  <si>
+    <t>0.1uF Capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teensy </t>
+  </si>
+  <si>
+    <t>510 Resistor</t>
+  </si>
+  <si>
+    <t>Molex Connectors</t>
+  </si>
+  <si>
+    <t>ESR03EZPJ331</t>
+  </si>
+  <si>
+    <t>Digi-key</t>
+  </si>
+  <si>
+    <t>ESR03EZPJ511</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPJ101/1983452</t>
+  </si>
+  <si>
+    <t>ESR03EZPJ101</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPJ511/1762937</t>
+  </si>
+  <si>
+    <t>ESR10EZPJ430</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR10EZPJ430/1762819</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPJ331/1762730</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B104KO8NNNC/3889091</t>
+  </si>
+  <si>
+    <t>CL10B104KO8NNNC</t>
+  </si>
+  <si>
+    <t>OKI 5V</t>
+  </si>
+  <si>
+    <t>OKI-78SR-5/1.5-W36H-C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-power-solutions-inc/OKI-78SR-5-1.5-W36H-C/3438675</t>
+  </si>
+  <si>
+    <t>OKI 3.3V</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-power-solutions-inc/OKI-78SR-3.3-1.5-W36H-C/4878851</t>
+  </si>
+  <si>
+    <t>OKI-78SR-3.3/1.5-W36H-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digi-key </t>
   </si>
 </sst>
 </file>
@@ -508,20 +589,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" customWidth="1"/>
-    <col min="7" max="10" width="12.6328125" customWidth="1"/>
+    <col min="1" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -576,7 +657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>14</v>
       </c>
@@ -596,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>18</v>
       </c>
@@ -616,7 +697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>27</v>
       </c>
@@ -624,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -644,7 +725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>28</v>
       </c>
@@ -664,7 +745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>32</v>
       </c>
@@ -678,9 +759,181 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>4.3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>4.3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/BOM/BOM.xlsx
+++ b/Documentation/BOM/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilian\Github\GimbalBoard_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51F36D-48FB-46E9-B9FB-632442E7FA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C9E021-C56A-4FE0-B2DC-EC882862E7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4608" yWindow="1560" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1716" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>510 Resistor</t>
   </si>
   <si>
-    <t>Molex Connectors</t>
-  </si>
-  <si>
     <t>ESR03EZPJ331</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t xml:space="preserve">Digi-key </t>
+  </si>
+  <si>
+    <t>Molex Connectors (horizontal)</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,10 +785,10 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <v>8</v>
@@ -797,7 +797,7 @@
         <v>0.1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -805,10 +805,10 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -817,7 +817,7 @@
         <v>0.1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -825,10 +825,10 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14">
         <v>9</v>
@@ -837,7 +837,7 @@
         <v>0.1</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -845,10 +845,10 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15">
         <v>11</v>
@@ -857,7 +857,7 @@
         <v>0.1</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -865,10 +865,10 @@
         <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0.1</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.3">
@@ -890,7 +890,7 @@
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H18">
         <v>8</v>
@@ -898,13 +898,13 @@
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
         <v>54</v>
       </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -913,18 +913,18 @@
         <v>4.3</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>4.3</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/BOM/BOM.xlsx
+++ b/Documentation/BOM/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilian\Github\GimbalBoard_Hardware\Documentation\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\OneDrive\Documents\GitHub\GimbalBoard_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C9E021-C56A-4FE0-B2DC-EC882862E7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF09DE-F6E3-4E64-A537-3BCED0E7EE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1716" windowWidth="16608" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Id</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Molex Connectors (horizontal)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/KDZVTFTR3-9B/9697263</t>
   </si>
 </sst>
 </file>
@@ -592,17 +595,17 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="10" width="12.6640625" customWidth="1"/>
+    <col min="1" max="5" width="12.6328125" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" customWidth="1"/>
+    <col min="7" max="10" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -657,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>14</v>
       </c>
@@ -677,7 +680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>18</v>
       </c>
@@ -697,7 +700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>27</v>
       </c>
@@ -705,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -725,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>28</v>
       </c>
@@ -745,7 +748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>32</v>
       </c>
@@ -759,12 +762,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>34</v>
       </c>
@@ -772,15 +775,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>41</v>
       </c>
@@ -800,7 +806,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>36</v>
       </c>
@@ -820,7 +826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>37</v>
       </c>
@@ -840,7 +846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>38</v>
       </c>
@@ -860,7 +866,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>39</v>
       </c>
@@ -880,7 +886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>40</v>
       </c>
@@ -888,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>60</v>
       </c>
@@ -896,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>53</v>
       </c>
@@ -916,7 +922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>56</v>
       </c>
@@ -942,8 +948,9 @@
     <hyperlink ref="J3" r:id="rId2" xr:uid="{507B4305-BFFF-48C6-9F4C-3D18E536E630}"/>
     <hyperlink ref="J4" r:id="rId3" xr:uid="{E9A7265F-97A5-498D-A0CF-D77DBB3EEB0A}"/>
     <hyperlink ref="K1" r:id="rId4" location="gid=1677207111" xr:uid="{4DD69053-3FD8-49A6-9DCA-4487FA9826BA}"/>
+    <hyperlink ref="J11" r:id="rId5" xr:uid="{0C77E8FC-751A-447F-9F41-46CCC889FCE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Documentation/BOM/BOM.xlsx
+++ b/Documentation/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\OneDrive\Documents\GitHub\GimbalBoard_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF09DE-F6E3-4E64-A537-3BCED0E7EE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8AEE71-CB43-4BE5-BAAE-B52951EF8928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Documentation/BOM/BOM.xlsx
+++ b/Documentation/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\OneDrive\Documents\GitHub\GimbalBoard_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8AEE71-CB43-4BE5-BAAE-B52951EF8928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F0B669-01D0-47BC-8945-EFCD645FA70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -119,27 +119,15 @@
     <t>dual NMOS</t>
   </si>
   <si>
-    <t>digikey</t>
-  </si>
-  <si>
     <t>2N7002NCT-ND</t>
   </si>
   <si>
     <t>https://www.newark.com/on-semiconductor/2n7002/mosfet-n-channel-60v-115ma-sot/dp/58K9651?gclid=CjwKCAiAm7OMBhAQEiwArvGi3JAKS1RbplkHNRLcR4XTUiYGfFYLS7X2EdIIIidl7Vz5AOVoCz_QBRoCotQQAvD_BwE&amp;mckv=s_dc|pcrid|502765332365|plid||kword|2n7002|match|p|slid||product||pgrid|118037913589|ptaid|kwd-713885255|&amp;cmp=KNC-GUSA-GEN-SKU-Semiconductors-Semiconductors-https://www.newark.com/on-semiconductor/2n7002/mosfet-n-channel-60v-115ma-sot/dp/58K9651?gclid=CjwKCAiAm7OMBhAQEiwArvGi3JAKS1RbplkHNRLcR4XTUiYGfFYLS7X2EdIIIidl7Vz5AOVoCz_QBRoCotQQAvD_BwE&amp;mckv=s_dc|pcrid|502765332365|plid||kword|2n7002|match|p|slid||product||pgrid|118037913589|ptaid|kwd-713885255|&amp;cmp=KNC-GUSA-GEN-SKU-Semiconductors-Semiconductors-Discretes</t>
   </si>
   <si>
-    <t>pb-smd</t>
-  </si>
-  <si>
-    <t>toggle switch</t>
-  </si>
-  <si>
     <t>AndersonPP</t>
   </si>
   <si>
-    <t>Zener Diode</t>
-  </si>
-  <si>
     <t>330 Resistor</t>
   </si>
   <si>
@@ -212,10 +200,7 @@
     <t xml:space="preserve">Digi-key </t>
   </si>
   <si>
-    <t>Molex Connectors (horizontal)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/KDZVTFTR3-9B/9697263</t>
+    <t>Molex Connectors (horizontal) 3x2</t>
   </si>
 </sst>
 </file>
@@ -595,7 +580,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,7 +709,7 @@
       <c r="I6">
         <v>0.48</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -733,7 +718,7 @@
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -745,56 +730,29 @@
         <v>0.34</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H12">
         <v>8</v>
@@ -802,19 +760,19 @@
       <c r="I12">
         <v>0.1</v>
       </c>
-      <c r="J12" t="s">
-        <v>47</v>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -823,18 +781,18 @@
         <v>0.1</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>9</v>
@@ -843,18 +801,18 @@
         <v>0.1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>11</v>
@@ -863,18 +821,18 @@
         <v>0.1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -882,13 +840,13 @@
       <c r="I16">
         <v>0.1</v>
       </c>
-      <c r="J16" t="s">
-        <v>51</v>
+      <c r="J16" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -896,21 +854,21 @@
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -919,18 +877,18 @@
         <v>4.3</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -939,7 +897,7 @@
         <v>4.3</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -948,9 +906,11 @@
     <hyperlink ref="J3" r:id="rId2" xr:uid="{507B4305-BFFF-48C6-9F4C-3D18E536E630}"/>
     <hyperlink ref="J4" r:id="rId3" xr:uid="{E9A7265F-97A5-498D-A0CF-D77DBB3EEB0A}"/>
     <hyperlink ref="K1" r:id="rId4" location="gid=1677207111" xr:uid="{4DD69053-3FD8-49A6-9DCA-4487FA9826BA}"/>
-    <hyperlink ref="J11" r:id="rId5" xr:uid="{0C77E8FC-751A-447F-9F41-46CCC889FCE6}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{DB6055C9-403F-4FF7-B11B-232C45C97DD4}"/>
+    <hyperlink ref="J12" r:id="rId6" xr:uid="{BFBD83AA-CC2A-4A34-B667-1DA06B7AFBC8}"/>
+    <hyperlink ref="J16" r:id="rId7" xr:uid="{A9AFF38B-2117-43AA-BCF0-717D751E2BB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Documentation/BOM/BOM.xlsx
+++ b/Documentation/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\OneDrive\Documents\GitHub\GimbalBoard_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F0B669-01D0-47BC-8945-EFCD645FA70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910EEF3A-D838-4AFE-99FE-F8639724BBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Documentation/BOM/BOM.xlsx
+++ b/Documentation/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\OneDrive\Documents\GitHub\GimbalBoard_Hardware\Documentation\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910EEF3A-D838-4AFE-99FE-F8639724BBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD3F13-AE44-4C98-B2DC-2E8A02E39215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Molex Connectors (horizontal) 3x2</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -577,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,7 +593,7 @@
     <col min="7" max="10" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,13 +622,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -641,11 +647,15 @@
       <c r="I2">
         <v>0.221</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2">
+        <f>I2*H2</f>
+        <v>1.768</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>14</v>
       </c>
@@ -661,11 +671,15 @@
       <c r="I3">
         <v>0.48</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="0">I3*H3</f>
+        <v>0.48</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>18</v>
       </c>
@@ -681,19 +695,27 @@
       <c r="I4">
         <v>0.42099999999999999</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>7.5779999999999994</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -709,11 +731,15 @@
       <c r="I6">
         <v>0.48</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>28</v>
       </c>
@@ -729,11 +755,15 @@
       <c r="I7">
         <v>0.34</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>2.72</v>
+      </c>
+      <c r="K7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>31</v>
       </c>
@@ -741,10 +771,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>37</v>
       </c>
@@ -760,11 +790,15 @@
       <c r="I12">
         <v>0.1</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>32</v>
       </c>
@@ -780,11 +814,15 @@
       <c r="I13">
         <v>0.1</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="K13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>33</v>
       </c>
@@ -800,11 +838,15 @@
       <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>34</v>
       </c>
@@ -820,11 +862,15 @@
       <c r="I15">
         <v>0.1</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>35</v>
       </c>
@@ -840,11 +886,15 @@
       <c r="I16">
         <v>0.1</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>36</v>
       </c>
@@ -852,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>56</v>
       </c>
@@ -860,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>49</v>
       </c>
@@ -876,11 +926,15 @@
       <c r="I19">
         <v>4.3</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="K19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>52</v>
       </c>
@@ -896,19 +950,23 @@
       <c r="I20">
         <v>4.3</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="K20" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{DA0D4351-2DCB-4746-A03E-281FDD4D61DD}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{507B4305-BFFF-48C6-9F4C-3D18E536E630}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{E9A7265F-97A5-498D-A0CF-D77DBB3EEB0A}"/>
-    <hyperlink ref="K1" r:id="rId4" location="gid=1677207111" xr:uid="{4DD69053-3FD8-49A6-9DCA-4487FA9826BA}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{DB6055C9-403F-4FF7-B11B-232C45C97DD4}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{BFBD83AA-CC2A-4A34-B667-1DA06B7AFBC8}"/>
-    <hyperlink ref="J16" r:id="rId7" xr:uid="{A9AFF38B-2117-43AA-BCF0-717D751E2BB1}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{DA0D4351-2DCB-4746-A03E-281FDD4D61DD}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{507B4305-BFFF-48C6-9F4C-3D18E536E630}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{E9A7265F-97A5-498D-A0CF-D77DBB3EEB0A}"/>
+    <hyperlink ref="L1" r:id="rId4" location="gid=1677207111" xr:uid="{4DD69053-3FD8-49A6-9DCA-4487FA9826BA}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{DB6055C9-403F-4FF7-B11B-232C45C97DD4}"/>
+    <hyperlink ref="K12" r:id="rId6" xr:uid="{BFBD83AA-CC2A-4A34-B667-1DA06B7AFBC8}"/>
+    <hyperlink ref="K16" r:id="rId7" xr:uid="{A9AFF38B-2117-43AA-BCF0-717D751E2BB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
